--- a/Extracted Data/VRU Headform (UC) - Color-wise Data & Graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (UC) - Color-wise Data & Graphs/2023_cars_combined.xlsx
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.71900826446281</v>
+        <v>3.72</v>
       </c>
       <c r="D2" t="n">
-        <v>42.56198347107438</v>
+        <v>42.56</v>
       </c>
       <c r="E2" t="n">
-        <v>26.8595041322314</v>
+        <v>26.86</v>
       </c>
       <c r="F2" t="n">
-        <v>4.132231404958678</v>
+        <v>4.13</v>
       </c>
       <c r="G2" t="n">
-        <v>16.94214876033058</v>
+        <v>16.94</v>
       </c>
       <c r="H2" t="n">
-        <v>5.785123966942149</v>
+        <v>5.79</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -772,22 +772,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11.50793650793651</v>
+        <v>11.51</v>
       </c>
       <c r="D3" t="n">
-        <v>29.36507936507937</v>
+        <v>29.37</v>
       </c>
       <c r="E3" t="n">
-        <v>22.22222222222222</v>
+        <v>22.22</v>
       </c>
       <c r="F3" t="n">
-        <v>10.31746031746032</v>
+        <v>10.32</v>
       </c>
       <c r="G3" t="n">
-        <v>24.20634920634921</v>
+        <v>24.21</v>
       </c>
       <c r="H3" t="n">
-        <v>2.380952380952381</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.08264462809917</v>
+        <v>40.08</v>
       </c>
       <c r="D4" t="n">
-        <v>20.24793388429752</v>
+        <v>20.25</v>
       </c>
       <c r="E4" t="n">
-        <v>9.090909090909092</v>
+        <v>9.09</v>
       </c>
       <c r="F4" t="n">
-        <v>4.132231404958678</v>
+        <v>4.13</v>
       </c>
       <c r="G4" t="n">
-        <v>21.48760330578513</v>
+        <v>21.49</v>
       </c>
       <c r="H4" t="n">
-        <v>4.958677685950414</v>
+        <v>4.96</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -837,25 +837,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.130434782608695</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>27.82608695652174</v>
+        <v>27.83</v>
       </c>
       <c r="D5" t="n">
-        <v>34.34782608695652</v>
+        <v>34.35</v>
       </c>
       <c r="E5" t="n">
-        <v>8.260869565217391</v>
+        <v>8.26</v>
       </c>
       <c r="F5" t="n">
-        <v>6.956521739130435</v>
+        <v>6.96</v>
       </c>
       <c r="G5" t="n">
-        <v>8.260869565217391</v>
+        <v>8.26</v>
       </c>
       <c r="H5" t="n">
-        <v>5.217391304347826</v>
+        <v>5.22</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -874,22 +874,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>22.17741935483871</v>
+        <v>22.18</v>
       </c>
       <c r="D6" t="n">
-        <v>33.46774193548387</v>
+        <v>33.47</v>
       </c>
       <c r="E6" t="n">
-        <v>10.08064516129032</v>
+        <v>10.08</v>
       </c>
       <c r="F6" t="n">
-        <v>13.70967741935484</v>
+        <v>13.71</v>
       </c>
       <c r="G6" t="n">
-        <v>17.33870967741936</v>
+        <v>17.34</v>
       </c>
       <c r="H6" t="n">
-        <v>3.225806451612903</v>
+        <v>3.23</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -905,25 +905,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.201680672268908</v>
+        <v>4.2</v>
       </c>
       <c r="C7" t="n">
-        <v>34.03361344537815</v>
+        <v>34.03</v>
       </c>
       <c r="D7" t="n">
-        <v>43.27731092436975</v>
+        <v>43.28</v>
       </c>
       <c r="E7" t="n">
-        <v>3.361344537815126</v>
+        <v>3.36</v>
       </c>
       <c r="F7" t="n">
-        <v>2.521008403361344</v>
+        <v>2.52</v>
       </c>
       <c r="G7" t="n">
-        <v>6.722689075630252</v>
+        <v>6.72</v>
       </c>
       <c r="H7" t="n">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>62.82051282051282</v>
+        <v>62.82</v>
       </c>
       <c r="D8" t="n">
-        <v>14.52991452991453</v>
+        <v>14.53</v>
       </c>
       <c r="E8" t="n">
-        <v>5.982905982905983</v>
+        <v>5.98</v>
       </c>
       <c r="F8" t="n">
-        <v>4.273504273504273</v>
+        <v>4.27</v>
       </c>
       <c r="G8" t="n">
-        <v>8.974358974358974</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>3.418803418803419</v>
+        <v>3.42</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -973,25 +973,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.327586206896551</v>
+        <v>7.33</v>
       </c>
       <c r="C9" t="n">
-        <v>36.63793103448275</v>
+        <v>36.64</v>
       </c>
       <c r="D9" t="n">
-        <v>23.70689655172414</v>
+        <v>23.71</v>
       </c>
       <c r="E9" t="n">
-        <v>11.63793103448276</v>
+        <v>11.64</v>
       </c>
       <c r="F9" t="n">
-        <v>5.172413793103448</v>
+        <v>5.17</v>
       </c>
       <c r="G9" t="n">
-        <v>9.482758620689655</v>
+        <v>9.48</v>
       </c>
       <c r="H9" t="n">
-        <v>6.03448275862069</v>
+        <v>6.03</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1010,22 +1010,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>21.36752136752137</v>
+        <v>21.37</v>
       </c>
       <c r="D10" t="n">
-        <v>34.18803418803419</v>
+        <v>34.19</v>
       </c>
       <c r="E10" t="n">
-        <v>12.39316239316239</v>
+        <v>12.39</v>
       </c>
       <c r="F10" t="n">
-        <v>9.82905982905983</v>
+        <v>9.83</v>
       </c>
       <c r="G10" t="n">
-        <v>17.09401709401709</v>
+        <v>17.09</v>
       </c>
       <c r="H10" t="n">
-        <v>5.128205128205128</v>
+        <v>5.13</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1044,22 +1044,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.34782608695652</v>
+        <v>34.35</v>
       </c>
       <c r="D11" t="n">
-        <v>35.21739130434783</v>
+        <v>35.22</v>
       </c>
       <c r="E11" t="n">
-        <v>11.73913043478261</v>
+        <v>11.74</v>
       </c>
       <c r="F11" t="n">
-        <v>3.91304347826087</v>
+        <v>3.91</v>
       </c>
       <c r="G11" t="n">
-        <v>9.565217391304348</v>
+        <v>9.57</v>
       </c>
       <c r="H11" t="n">
-        <v>5.217391304347826</v>
+        <v>5.22</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1078,22 +1078,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>38.30645161290322</v>
+        <v>38.31</v>
       </c>
       <c r="D12" t="n">
-        <v>30.24193548387097</v>
+        <v>30.24</v>
       </c>
       <c r="E12" t="n">
-        <v>10.48387096774194</v>
+        <v>10.48</v>
       </c>
       <c r="F12" t="n">
-        <v>4.838709677419355</v>
+        <v>4.84</v>
       </c>
       <c r="G12" t="n">
-        <v>12.09677419354839</v>
+        <v>12.1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.032258064516129</v>
+        <v>4.03</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1112,22 +1112,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.76744186046512</v>
+        <v>19.77</v>
       </c>
       <c r="D13" t="n">
-        <v>39.53488372093023</v>
+        <v>39.53</v>
       </c>
       <c r="E13" t="n">
-        <v>14.34108527131783</v>
+        <v>14.34</v>
       </c>
       <c r="F13" t="n">
-        <v>6.589147286821706</v>
+        <v>6.59</v>
       </c>
       <c r="G13" t="n">
-        <v>13.56589147286822</v>
+        <v>13.57</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2015503875969</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1146,22 +1146,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>27.90697674418605</v>
+        <v>27.91</v>
       </c>
       <c r="D14" t="n">
-        <v>25.1937984496124</v>
+        <v>25.19</v>
       </c>
       <c r="E14" t="n">
-        <v>17.82945736434108</v>
+        <v>17.83</v>
       </c>
       <c r="F14" t="n">
-        <v>6.976744186046512</v>
+        <v>6.98</v>
       </c>
       <c r="G14" t="n">
-        <v>18.99224806201551</v>
+        <v>18.99</v>
       </c>
       <c r="H14" t="n">
-        <v>3.10077519379845</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>25.65217391304348</v>
+        <v>25.65</v>
       </c>
       <c r="E15" t="n">
-        <v>14.78260869565217</v>
+        <v>14.78</v>
       </c>
       <c r="F15" t="n">
-        <v>9.565217391304348</v>
+        <v>9.57</v>
       </c>
       <c r="G15" t="n">
-        <v>4.782608695652174</v>
+        <v>4.78</v>
       </c>
       <c r="H15" t="n">
-        <v>5.217391304347826</v>
+        <v>5.22</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>

--- a/Extracted Data/VRU Headform (UC) - Color-wise Data & Graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (UC) - Color-wise Data & Graphs/2023_cars_combined.xlsx
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.72</v>
+        <v>3.71900826446281</v>
       </c>
       <c r="D2" t="n">
-        <v>42.56</v>
+        <v>42.56198347107438</v>
       </c>
       <c r="E2" t="n">
-        <v>26.86</v>
+        <v>26.8595041322314</v>
       </c>
       <c r="F2" t="n">
-        <v>4.13</v>
+        <v>4.132231404958678</v>
       </c>
       <c r="G2" t="n">
-        <v>16.94</v>
+        <v>16.94214876033058</v>
       </c>
       <c r="H2" t="n">
-        <v>5.79</v>
+        <v>5.785123966942149</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -772,22 +772,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11.51</v>
+        <v>11.50793650793651</v>
       </c>
       <c r="D3" t="n">
-        <v>29.37</v>
+        <v>29.36507936507937</v>
       </c>
       <c r="E3" t="n">
-        <v>22.22</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F3" t="n">
-        <v>10.32</v>
+        <v>10.31746031746032</v>
       </c>
       <c r="G3" t="n">
-        <v>24.21</v>
+        <v>24.20634920634921</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.08</v>
+        <v>40.08264462809917</v>
       </c>
       <c r="D4" t="n">
-        <v>20.25</v>
+        <v>20.24793388429752</v>
       </c>
       <c r="E4" t="n">
-        <v>9.09</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="F4" t="n">
-        <v>4.13</v>
+        <v>4.132231404958678</v>
       </c>
       <c r="G4" t="n">
-        <v>21.49</v>
+        <v>21.48760330578513</v>
       </c>
       <c r="H4" t="n">
-        <v>4.96</v>
+        <v>4.958677685950414</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -837,25 +837,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.130000000000001</v>
+        <v>9.130434782608695</v>
       </c>
       <c r="C5" t="n">
-        <v>27.83</v>
+        <v>27.82608695652174</v>
       </c>
       <c r="D5" t="n">
-        <v>34.35</v>
+        <v>34.34782608695652</v>
       </c>
       <c r="E5" t="n">
-        <v>8.26</v>
+        <v>8.260869565217391</v>
       </c>
       <c r="F5" t="n">
-        <v>6.96</v>
+        <v>6.956521739130435</v>
       </c>
       <c r="G5" t="n">
-        <v>8.26</v>
+        <v>8.260869565217391</v>
       </c>
       <c r="H5" t="n">
-        <v>5.22</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -874,22 +874,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>22.18</v>
+        <v>22.17741935483871</v>
       </c>
       <c r="D6" t="n">
-        <v>33.47</v>
+        <v>33.46774193548387</v>
       </c>
       <c r="E6" t="n">
-        <v>10.08</v>
+        <v>10.08064516129032</v>
       </c>
       <c r="F6" t="n">
-        <v>13.71</v>
+        <v>13.70967741935484</v>
       </c>
       <c r="G6" t="n">
-        <v>17.34</v>
+        <v>17.33870967741936</v>
       </c>
       <c r="H6" t="n">
-        <v>3.23</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -905,25 +905,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.2</v>
+        <v>4.201680672268908</v>
       </c>
       <c r="C7" t="n">
-        <v>34.03</v>
+        <v>34.03361344537815</v>
       </c>
       <c r="D7" t="n">
-        <v>43.28</v>
+        <v>43.27731092436975</v>
       </c>
       <c r="E7" t="n">
-        <v>3.36</v>
+        <v>3.361344537815126</v>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>2.521008403361344</v>
       </c>
       <c r="G7" t="n">
-        <v>6.72</v>
+        <v>6.722689075630252</v>
       </c>
       <c r="H7" t="n">
-        <v>5.88</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>62.82</v>
+        <v>62.82051282051282</v>
       </c>
       <c r="D8" t="n">
-        <v>14.53</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="E8" t="n">
-        <v>5.98</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="F8" t="n">
-        <v>4.27</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="G8" t="n">
-        <v>8.970000000000001</v>
+        <v>8.974358974358974</v>
       </c>
       <c r="H8" t="n">
-        <v>3.42</v>
+        <v>3.418803418803419</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -973,25 +973,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.33</v>
+        <v>7.327586206896551</v>
       </c>
       <c r="C9" t="n">
-        <v>36.64</v>
+        <v>36.63793103448275</v>
       </c>
       <c r="D9" t="n">
-        <v>23.71</v>
+        <v>23.70689655172414</v>
       </c>
       <c r="E9" t="n">
-        <v>11.64</v>
+        <v>11.63793103448276</v>
       </c>
       <c r="F9" t="n">
-        <v>5.17</v>
+        <v>5.172413793103448</v>
       </c>
       <c r="G9" t="n">
-        <v>9.48</v>
+        <v>9.482758620689655</v>
       </c>
       <c r="H9" t="n">
-        <v>6.03</v>
+        <v>6.03448275862069</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1010,22 +1010,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>21.37</v>
+        <v>21.36752136752137</v>
       </c>
       <c r="D10" t="n">
-        <v>34.19</v>
+        <v>34.18803418803419</v>
       </c>
       <c r="E10" t="n">
-        <v>12.39</v>
+        <v>12.39316239316239</v>
       </c>
       <c r="F10" t="n">
-        <v>9.83</v>
+        <v>9.82905982905983</v>
       </c>
       <c r="G10" t="n">
-        <v>17.09</v>
+        <v>17.09401709401709</v>
       </c>
       <c r="H10" t="n">
-        <v>5.13</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1044,22 +1044,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.35</v>
+        <v>34.34782608695652</v>
       </c>
       <c r="D11" t="n">
-        <v>35.22</v>
+        <v>35.21739130434783</v>
       </c>
       <c r="E11" t="n">
-        <v>11.74</v>
+        <v>11.73913043478261</v>
       </c>
       <c r="F11" t="n">
-        <v>3.91</v>
+        <v>3.91304347826087</v>
       </c>
       <c r="G11" t="n">
-        <v>9.57</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="H11" t="n">
-        <v>5.22</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1078,22 +1078,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>38.31</v>
+        <v>38.30645161290322</v>
       </c>
       <c r="D12" t="n">
-        <v>30.24</v>
+        <v>30.24193548387097</v>
       </c>
       <c r="E12" t="n">
-        <v>10.48</v>
+        <v>10.48387096774194</v>
       </c>
       <c r="F12" t="n">
-        <v>4.84</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="G12" t="n">
-        <v>12.1</v>
+        <v>12.09677419354839</v>
       </c>
       <c r="H12" t="n">
-        <v>4.03</v>
+        <v>4.032258064516129</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1112,22 +1112,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.77</v>
+        <v>19.76744186046512</v>
       </c>
       <c r="D13" t="n">
-        <v>39.53</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="E13" t="n">
-        <v>14.34</v>
+        <v>14.34108527131783</v>
       </c>
       <c r="F13" t="n">
-        <v>6.59</v>
+        <v>6.589147286821706</v>
       </c>
       <c r="G13" t="n">
-        <v>13.57</v>
+        <v>13.56589147286822</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>6.2015503875969</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1146,22 +1146,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>27.91</v>
+        <v>27.90697674418605</v>
       </c>
       <c r="D14" t="n">
-        <v>25.19</v>
+        <v>25.1937984496124</v>
       </c>
       <c r="E14" t="n">
-        <v>17.83</v>
+        <v>17.82945736434108</v>
       </c>
       <c r="F14" t="n">
-        <v>6.98</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="G14" t="n">
-        <v>18.99</v>
+        <v>18.99224806201551</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.10077519379845</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>25.65</v>
+        <v>25.65217391304348</v>
       </c>
       <c r="E15" t="n">
-        <v>14.78</v>
+        <v>14.78260869565217</v>
       </c>
       <c r="F15" t="n">
-        <v>9.57</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="G15" t="n">
-        <v>4.78</v>
+        <v>4.782608695652174</v>
       </c>
       <c r="H15" t="n">
-        <v>5.22</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>

--- a/Extracted Data/VRU Headform (UC) - Color-wise Data & Graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (UC) - Color-wise Data & Graphs/2023_cars_combined.xlsx
@@ -731,29 +731,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BYD SEAL</t>
+          <t>NIO EL7</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.71900826446281</v>
+        <v>27.90697674418605</v>
       </c>
       <c r="D2" t="n">
-        <v>42.56198347107438</v>
+        <v>25.1937984496124</v>
       </c>
       <c r="E2" t="n">
-        <v>26.8595041322314</v>
+        <v>17.82945736434108</v>
       </c>
       <c r="F2" t="n">
-        <v>4.132231404958678</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="G2" t="n">
-        <v>16.94214876033058</v>
+        <v>18.99224806201551</v>
       </c>
       <c r="H2" t="n">
-        <v>5.785123966942149</v>
+        <v>3.10077519379845</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -765,29 +765,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XPENG G9</t>
+          <t>NIO ET5</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11.50793650793651</v>
+        <v>19.76744186046512</v>
       </c>
       <c r="D3" t="n">
-        <v>29.36507936507937</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="E3" t="n">
-        <v>22.22222222222222</v>
+        <v>14.34108527131783</v>
       </c>
       <c r="F3" t="n">
-        <v>10.31746031746032</v>
+        <v>6.589147286821706</v>
       </c>
       <c r="G3" t="n">
-        <v>24.20634920634921</v>
+        <v>13.56589147286822</v>
       </c>
       <c r="H3" t="n">
-        <v>2.380952380952381</v>
+        <v>6.2015503875969</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -799,29 +799,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VINFAST VF8</t>
+          <t>Lexus RZ</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.08264462809917</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>20.24793388429752</v>
+        <v>25.65217391304348</v>
       </c>
       <c r="E4" t="n">
-        <v>9.090909090909092</v>
+        <v>14.78260869565217</v>
       </c>
       <c r="F4" t="n">
-        <v>4.132231404958678</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="G4" t="n">
-        <v>21.48760330578513</v>
+        <v>4.782608695652174</v>
       </c>
       <c r="H4" t="n">
-        <v>4.958677685950414</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -833,29 +833,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Honda ZR-V</t>
+          <t>BYD SEAL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.130434782608695</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>27.82608695652174</v>
+        <v>3.71900826446281</v>
       </c>
       <c r="D5" t="n">
-        <v>34.34782608695652</v>
+        <v>42.56198347107438</v>
       </c>
       <c r="E5" t="n">
-        <v>8.260869565217391</v>
+        <v>26.8595041322314</v>
       </c>
       <c r="F5" t="n">
-        <v>6.956521739130435</v>
+        <v>4.132231404958678</v>
       </c>
       <c r="G5" t="n">
-        <v>8.260869565217391</v>
+        <v>16.94214876033058</v>
       </c>
       <c r="H5" t="n">
-        <v>5.217391304347826</v>
+        <v>5.785123966942149</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -867,29 +867,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BYD SEAL-U</t>
+          <t>BMW 5 series</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>22.17741935483871</v>
+        <v>62.82051282051282</v>
       </c>
       <c r="D6" t="n">
-        <v>33.46774193548387</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="E6" t="n">
-        <v>10.08064516129032</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="F6" t="n">
-        <v>13.70967741935484</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="G6" t="n">
-        <v>17.33870967741936</v>
+        <v>8.974358974358974</v>
       </c>
       <c r="H6" t="n">
-        <v>3.225806451612903</v>
+        <v>3.418803418803419</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -901,29 +901,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Volkswagen ID.7</t>
+          <t>BYD SEAL-U</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.201680672268908</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>34.03361344537815</v>
+        <v>22.17741935483871</v>
       </c>
       <c r="D7" t="n">
-        <v>43.27731092436975</v>
+        <v>33.46774193548387</v>
       </c>
       <c r="E7" t="n">
-        <v>3.361344537815126</v>
+        <v>10.08064516129032</v>
       </c>
       <c r="F7" t="n">
-        <v>2.521008403361344</v>
+        <v>13.70967741935484</v>
       </c>
       <c r="G7" t="n">
-        <v>6.722689075630252</v>
+        <v>17.33870967741936</v>
       </c>
       <c r="H7" t="n">
-        <v>5.88235294117647</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -935,29 +935,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMW 5 series</t>
+          <t>BYD TANG</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>62.82051282051282</v>
+        <v>21.36752136752137</v>
       </c>
       <c r="D8" t="n">
-        <v>14.52991452991453</v>
+        <v>34.18803418803419</v>
       </c>
       <c r="E8" t="n">
-        <v>5.982905982905983</v>
+        <v>12.39316239316239</v>
       </c>
       <c r="F8" t="n">
-        <v>4.273504273504273</v>
+        <v>9.82905982905983</v>
       </c>
       <c r="G8" t="n">
-        <v>8.974358974358974</v>
+        <v>17.09401709401709</v>
       </c>
       <c r="H8" t="n">
-        <v>3.418803418803419</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -969,29 +969,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>smart #3</t>
+          <t>Honda ZR-V</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.327586206896551</v>
+        <v>9.130434782608695</v>
       </c>
       <c r="C9" t="n">
-        <v>36.63793103448275</v>
+        <v>27.82608695652174</v>
       </c>
       <c r="D9" t="n">
-        <v>23.70689655172414</v>
+        <v>34.34782608695652</v>
       </c>
       <c r="E9" t="n">
-        <v>11.63793103448276</v>
+        <v>8.260869565217391</v>
       </c>
       <c r="F9" t="n">
-        <v>5.172413793103448</v>
+        <v>6.956521739130435</v>
       </c>
       <c r="G9" t="n">
-        <v>9.482758620689655</v>
+        <v>8.260869565217391</v>
       </c>
       <c r="H9" t="n">
-        <v>6.03448275862069</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1003,29 +1003,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BYD TANG</t>
+          <t>Hyundai KONA</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>21.36752136752137</v>
+        <v>34.34782608695652</v>
       </c>
       <c r="D10" t="n">
-        <v>34.18803418803419</v>
+        <v>35.21739130434783</v>
       </c>
       <c r="E10" t="n">
-        <v>12.39316239316239</v>
+        <v>11.73913043478261</v>
       </c>
       <c r="F10" t="n">
-        <v>9.82905982905983</v>
+        <v>3.91304347826087</v>
       </c>
       <c r="G10" t="n">
-        <v>17.09401709401709</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="H10" t="n">
-        <v>5.128205128205128</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1037,29 +1037,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hyundai KONA</t>
+          <t>Kia EV9</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.34782608695652</v>
+        <v>38.30645161290322</v>
       </c>
       <c r="D11" t="n">
-        <v>35.21739130434783</v>
+        <v>30.24193548387097</v>
       </c>
       <c r="E11" t="n">
-        <v>11.73913043478261</v>
+        <v>10.48387096774194</v>
       </c>
       <c r="F11" t="n">
-        <v>3.91304347826087</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="G11" t="n">
-        <v>9.565217391304348</v>
+        <v>12.09677419354839</v>
       </c>
       <c r="H11" t="n">
-        <v>5.217391304347826</v>
+        <v>4.032258064516129</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1071,29 +1071,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kia EV9</t>
+          <t>smart #3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>7.327586206896551</v>
       </c>
       <c r="C12" t="n">
-        <v>38.30645161290322</v>
+        <v>36.63793103448275</v>
       </c>
       <c r="D12" t="n">
-        <v>30.24193548387097</v>
+        <v>23.70689655172414</v>
       </c>
       <c r="E12" t="n">
-        <v>10.48387096774194</v>
+        <v>11.63793103448276</v>
       </c>
       <c r="F12" t="n">
-        <v>4.838709677419355</v>
+        <v>5.172413793103448</v>
       </c>
       <c r="G12" t="n">
-        <v>12.09677419354839</v>
+        <v>9.482758620689655</v>
       </c>
       <c r="H12" t="n">
-        <v>4.032258064516129</v>
+        <v>6.03448275862069</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1105,29 +1105,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NIO ET5</t>
+          <t>VINFAST VF8</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.76744186046512</v>
+        <v>40.08264462809917</v>
       </c>
       <c r="D13" t="n">
-        <v>39.53488372093023</v>
+        <v>20.24793388429752</v>
       </c>
       <c r="E13" t="n">
-        <v>14.34108527131783</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="F13" t="n">
-        <v>6.589147286821706</v>
+        <v>4.132231404958678</v>
       </c>
       <c r="G13" t="n">
-        <v>13.56589147286822</v>
+        <v>21.48760330578513</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2015503875969</v>
+        <v>4.958677685950414</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1139,29 +1139,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NIO EL7</t>
+          <t>Volkswagen ID.7</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4.201680672268908</v>
       </c>
       <c r="C14" t="n">
-        <v>27.90697674418605</v>
+        <v>34.03361344537815</v>
       </c>
       <c r="D14" t="n">
-        <v>25.1937984496124</v>
+        <v>43.27731092436975</v>
       </c>
       <c r="E14" t="n">
-        <v>17.82945736434108</v>
+        <v>3.361344537815126</v>
       </c>
       <c r="F14" t="n">
-        <v>6.976744186046512</v>
+        <v>2.521008403361344</v>
       </c>
       <c r="G14" t="n">
-        <v>18.99224806201551</v>
+        <v>6.722689075630252</v>
       </c>
       <c r="H14" t="n">
-        <v>3.10077519379845</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1173,29 +1173,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lexus RZ</t>
+          <t>XPENG G9</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>11.50793650793651</v>
       </c>
       <c r="D15" t="n">
-        <v>25.65217391304348</v>
+        <v>29.36507936507937</v>
       </c>
       <c r="E15" t="n">
-        <v>14.78260869565217</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F15" t="n">
-        <v>9.565217391304348</v>
+        <v>10.31746031746032</v>
       </c>
       <c r="G15" t="n">
-        <v>4.782608695652174</v>
+        <v>24.20634920634921</v>
       </c>
       <c r="H15" t="n">
-        <v>5.217391304347826</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>

--- a/Extracted Data/VRU Headform (UC) - Color-wise Data & Graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (UC) - Color-wise Data & Graphs/2023_cars_combined.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Graphs" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -137,236 +136,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>52</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>52</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>78</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>78</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>104</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1207,29 +976,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K105"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1"/>
-    <row r="27"/>
-    <row r="53"/>
-    <row r="79"/>
-    <row r="105"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Extracted Data/VRU Headform (UC) - Color-wise Data & Graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (UC) - Color-wise Data & Graphs/2023_cars_combined.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -134,6 +135,1550 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>D Green</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>D Green</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$B$2:$B$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Average: 1.48</v>
+          </tx>
+          <spPr>
+            <a:ln w="30000">
+              <a:solidFill>
+                <a:srgbClr val="FFA500"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$B$2:$B$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Car Names</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>%-age</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Green</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Green</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$C$2:$C$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Average: 30.04</v>
+          </tx>
+          <spPr>
+            <a:ln w="30000">
+              <a:solidFill>
+                <a:srgbClr val="FFA500"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$C$2:$C$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Car Names</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>%-age</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Yellow</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Yellow</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$D$2:$D$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Average: 30.82</v>
+          </tx>
+          <spPr>
+            <a:ln w="30000">
+              <a:solidFill>
+                <a:srgbClr val="FFA500"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$D$2:$D$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Car Names</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>%-age</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Orange</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Orange</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$E$2:$E$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Average: 12.79</v>
+          </tx>
+          <spPr>
+            <a:ln w="30000">
+              <a:solidFill>
+                <a:srgbClr val="FFA500"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$E$2:$E$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Car Names</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>%-age</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Brown</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Brown</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$F$2:$F$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Average: 6.64</v>
+          </tx>
+          <spPr>
+            <a:ln w="30000">
+              <a:solidFill>
+                <a:srgbClr val="FFA500"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$F$2:$F$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Car Names</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>%-age</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Red</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Red</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$G$2:$G$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Average: 13.54</v>
+          </tx>
+          <spPr>
+            <a:ln w="30000">
+              <a:solidFill>
+                <a:srgbClr val="FFA500"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$G$2:$G$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Car Names</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>%-age</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Default Red</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Default Red</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$H$2:$H$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Average: 4.70</v>
+          </tx>
+          <spPr>
+            <a:ln w="30000">
+              <a:solidFill>
+                <a:srgbClr val="FFA500"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$H$2:$H$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Car Names</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>%-age</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Blue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Blue</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$I$2:$I$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Average: 0.00</v>
+          </tx>
+          <spPr>
+            <a:ln w="30000">
+              <a:solidFill>
+                <a:srgbClr val="FFA500"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$I$2:$I$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Car Names</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>%-age</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Predicted headform score (excluding blue points)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Predicted headform score (excluding blue points)</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$J$2:$J$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Average: 100.00</v>
+          </tx>
+          <spPr>
+            <a:ln w="30000">
+              <a:solidFill>
+                <a:srgbClr val="FFA500"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Graphs'!$A$2:$A$15</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Graphs'!$J$2:$J$15</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Car Names</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>%-age</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>105</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>120</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -976,4 +2521,23 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>